--- a/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="26">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="26">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="26">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_weapon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="26">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>
